--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
@@ -88,10 +88,10 @@
     <t>Fzd3</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H2">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N2">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O2">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P2">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q2">
-        <v>0.004050563409555556</v>
+        <v>0.004283743333</v>
       </c>
       <c r="R2">
-        <v>0.03645507068600001</v>
+        <v>0.038553689997</v>
       </c>
       <c r="S2">
-        <v>0.006117910936841477</v>
+        <v>0.005253684826433193</v>
       </c>
       <c r="T2">
-        <v>0.007980365896578353</v>
+        <v>0.007053417084435949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H3">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I3">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J3">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.494381</v>
       </c>
       <c r="O3">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P3">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q3">
-        <v>0.009708329187666669</v>
+        <v>0.013510698621</v>
       </c>
       <c r="R3">
-        <v>0.08737496268900002</v>
+        <v>0.121596287589</v>
       </c>
       <c r="S3">
-        <v>0.014663316509394</v>
+        <v>0.01656984250033254</v>
       </c>
       <c r="T3">
-        <v>0.01912722042055683</v>
+        <v>0.02224610231474543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H4">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I4">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J4">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N4">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O4">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P4">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q4">
-        <v>0.03289379210983334</v>
+        <v>0.0005793382389999999</v>
       </c>
       <c r="R4">
-        <v>0.1973627526590001</v>
+        <v>0.005214044151</v>
       </c>
       <c r="S4">
-        <v>0.04968229605496294</v>
+        <v>0.0007105142112880242</v>
       </c>
       <c r="T4">
-        <v>0.04320460640828155</v>
+        <v>0.0009539120145575811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H5">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I5">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J5">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N5">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O5">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P5">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q5">
-        <v>0.0003291220010000001</v>
+        <v>0.05997003791999999</v>
       </c>
       <c r="R5">
-        <v>0.002962098009000001</v>
+        <v>0.3598202275199999</v>
       </c>
       <c r="S5">
-        <v>0.0004971009921046972</v>
+        <v>0.07354868248847234</v>
       </c>
       <c r="T5">
-        <v>0.0006484317678863886</v>
+        <v>0.06582929261278715</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I6">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J6">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N6">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O6">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P6">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q6">
-        <v>0.05303128217</v>
+        <v>0.040300164715</v>
       </c>
       <c r="R6">
-        <v>0.47728153953</v>
+        <v>0.3627014824349999</v>
       </c>
       <c r="S6">
-        <v>0.08009766256644486</v>
+        <v>0.04942508161843549</v>
       </c>
       <c r="T6">
-        <v>0.1044815234055866</v>
+        <v>0.06635641965675253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I7">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J7">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.494381</v>
       </c>
       <c r="O7">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P7">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q7">
         <v>0.127104575955</v>
@@ -883,10 +883,10 @@
         <v>1.143941183595</v>
       </c>
       <c r="S7">
-        <v>0.191976867594085</v>
+        <v>0.1558840785162907</v>
       </c>
       <c r="T7">
-        <v>0.2504197368833766</v>
+        <v>0.2092846181153271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I8">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J8">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N8">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O8">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P8">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q8">
-        <v>0.4306561321575</v>
+        <v>0.005450239344999999</v>
       </c>
       <c r="R8">
-        <v>2.583936792945</v>
+        <v>0.049052154105</v>
       </c>
       <c r="S8">
-        <v>0.6504566388786168</v>
+        <v>0.006684303311702565</v>
       </c>
       <c r="T8">
-        <v>0.565648637440481</v>
+        <v>0.008974116402853118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I9">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J9">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N9">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O9">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P9">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q9">
-        <v>0.004308971355</v>
+        <v>0.5641800215999999</v>
       </c>
       <c r="R9">
-        <v>0.038780742195</v>
+        <v>3.385080129599999</v>
       </c>
       <c r="S9">
-        <v>0.006508206467550071</v>
+        <v>0.691923812527045</v>
       </c>
       <c r="T9">
-        <v>0.008489477777252749</v>
+        <v>0.619302121798541</v>
       </c>
     </row>
   </sheetData>
